--- a/medicine/Enfance/Alain_Surget/Alain_Surget.xlsx
+++ b/medicine/Enfance/Alain_Surget/Alain_Surget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Surget est un écrivain français né le 21 juin 1948 à Metz. Il se consacre principalement à la littérature d'enfance et de jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Professeur d'histoire à Uckange depuis 1977, retraité à présent, c'est à l'âge de 11 ans qu'il ressent l'envie d'écrire et qu'il se consacre à la poésie et au théâtre, avant de se découvrir une passion pour le roman[1]. Il se déplace souvent dans les bibliothèques et les collèges pour rencontrer son jeune public[2], avec lequel il écrit des nouvelles et des romans. Il a été président de la section lorraine de la Société des Ecrivains d’Alsace et de Lorraine de 1989 à 2001[3]. Il a publié à ce jour (2023) 200 romans. Il est édité chez une douzaine d'éditeurs et est traduit en une quinzaine de langues. Il vit actuellement dans les Hautes-Alpes, au pays des loups.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professeur d'histoire à Uckange depuis 1977, retraité à présent, c'est à l'âge de 11 ans qu'il ressent l'envie d'écrire et qu'il se consacre à la poésie et au théâtre, avant de se découvrir une passion pour le roman. Il se déplace souvent dans les bibliothèques et les collèges pour rencontrer son jeune public, avec lequel il écrit des nouvelles et des romans. Il a été président de la section lorraine de la Société des Ecrivains d’Alsace et de Lorraine de 1989 à 2001. Il a publié à ce jour (2023) 200 romans. Il est édité chez une douzaine d'éditeurs et est traduit en une quinzaine de langues. Il vit actuellement dans les Hautes-Alpes, au pays des loups.
 </t>
         </is>
       </c>
@@ -544,43 +558,286 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>One-shots
-Le fils des loups, 1989 (réédition en 2002), Rageot
+          <t>One-shots</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le fils des loups, 1989 (réédition en 2002), Rageot
 La série Fort Boyard (8 tomes) Rageot
 Mila et le loup (Rageot)
 La rose noire (Rageot)
 Le Cavalier du Nil, 2000, Flammarion (Castor Poche), 128 pages, couverture dessinée par Jean-Louis Thouard
 Le renard de Morlange, 1995 (réédition en 2005,  (ISBN 978-2-0925-0669-1)), Nathan (Nathan Poche 10-12 ans/Fantastique), illustrations de Philippe Mignon, 120 pages,  (ISBN 2092506692)
 Le renard de Morlange : Bande dessinée chez Jungle/Nathan
-Mary Tempête, 2007, Flammarion (Castor Poche),[4](couverture de Rebecca Dautremer)
+Mary Tempête, 2007, Flammarion (Castor Poche),(couverture de Rebecca Dautremer)
 La septième fille du Diable (3 tomes), Flammarion (couvertures Rebecca Dautremer)
 Mujnak. La mer d'Aral assassinée, 2011, Oskar jeunesse
-Les flèches de silence, Oskar jeunesse [5],[6]
-Dieux grecs, dieux romains, comment s'y retrouver ?, 2015 [7], Flammarion jeunesse
+Les flèches de silence, Oskar jeunesse ,
+Dieux grecs, dieux romains, comment s'y retrouver ?, 2015 , Flammarion jeunesse
 Menace à Olympie, Flammarion
 Une bataille pour un cheval, Flammarion
 L'étalon des mers, Flammarion
 Un cheval pour totem, Flammarion
 Le dernier secret de Pompéi, Flammarion
 Le crime de l'empereur, Flammarion
-Mystères à Morteau, Grasset, en collaboration avec Jack Chaboud
-ABC Melody
-Mystères dans les Highlands, Mystères à Londres, Mystères sur le Nil, Mystères à Rome, Mystères chez les Mayas, Mystères à Tokyo, Mystères dans le Transsibérien, Mystères à Paris, Mystères au Louvre, Mystères à New York, Les Explorateurs du temps (3 volumes).
-Auzou
-Les monuments de l'ombre (6 tomes), Les enquêteurs de l'Antiquité (3 tomes), La conspiration d'Anubis.
-Chez Hautes-Alpes
-Le révolté de Savines, les Mosquitos (6 tomes), Mystère à Serre-Ponçon, Le secret de Saint-Bonnet, Les disparues du Dévoluy, Enquête au pays des marmottes, L'énigme des Oulles du Diable, Le fantôme de la Méouge, La sorcière de Fort Queyras, Le trésor caché de Tallard, À pas de loup, C'est moi le plus malin, Les 5 exploits de P'tit Gars, Les 5 exploits de Fifille, Une sorcière à l'école, Mon chat est un espion, Je veux un chien, Un pirate à Serre-Ponçon, L'assassin habite dans le 05, L'assassin des villages perchés, Piège dans le Champsaur.
-Chez Plumes et Confettis
-L'étrange ami de Forêt Noire
-Le popotin de miss Popotame
-Chez Orfèvres
-Les contes du loup
-Chez Lunii
-Margo apprentie véto
+Mystères à Morteau, Grasset, en collaboration avec Jack Chaboud</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Surget</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sélection d'ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ABC Melody</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mystères dans les Highlands, Mystères à Londres, Mystères sur le Nil, Mystères à Rome, Mystères chez les Mayas, Mystères à Tokyo, Mystères dans le Transsibérien, Mystères à Paris, Mystères au Louvre, Mystères à New York, Les Explorateurs du temps (3 volumes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alain_Surget</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sélection d'ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auzou</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les monuments de l'ombre (6 tomes), Les enquêteurs de l'Antiquité (3 tomes), La conspiration d'Anubis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alain_Surget</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sélection d'ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chez Hautes-Alpes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le révolté de Savines, les Mosquitos (6 tomes), Mystère à Serre-Ponçon, Le secret de Saint-Bonnet, Les disparues du Dévoluy, Enquête au pays des marmottes, L'énigme des Oulles du Diable, Le fantôme de la Méouge, La sorcière de Fort Queyras, Le trésor caché de Tallard, À pas de loup, C'est moi le plus malin, Les 5 exploits de P'tit Gars, Les 5 exploits de Fifille, Une sorcière à l'école, Mon chat est un espion, Je veux un chien, Un pirate à Serre-Ponçon, L'assassin habite dans le 05, L'assassin des villages perchés, Piège dans le Champsaur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alain_Surget</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sélection d'ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chez Plumes et Confettis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'étrange ami de Forêt Noire
+Le popotin de miss Popotame</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alain_Surget</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sélection d'ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chez Orfèvres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les contes du loup</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alain_Surget</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sélection d'ouvrages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chez Lunii</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Margo apprentie véto
 Margot apprentie véto en Australie
-Margot apprentie véto au Canada
-Séries
-Ménès, premier pharaon d'Egypte - Trilogie égyptienne (série, 1999-2000) trilogie éditée en un seul volume (Ménès premier pharaon d'Egypte) en 2001[8]
+Margot apprentie véto au Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alain_Surget</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sélection d'ouvrages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ménès, premier pharaon d'Egypte - Trilogie égyptienne (série, 1999-2000) trilogie éditée en un seul volume (Ménès premier pharaon d'Egypte) en 2001
 L'oeil d'Horus, 1998, Flammarion (Castor Poche), couverture dessinée par Olivier Besson, 153 pages
 L'Assassin du Nil, 1999, Flammarion (Castor Poche), couverture dessinée par Olivier Besson, 140 pages
 Le Maître des deux terres, janvier 2000, Flammarion (Castor Poche), couverture dessinée par Olivier Besson, 170 pages
@@ -602,31 +859,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alain_Surget</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alain_Surget</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Surget</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Séries ou romans notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Tirya  est une série de sept romans dont l'héroïne est Tirya, fille d'Amasis, aidé par Hermès, un jeune grec. Ces romans ont pour cadre principal l'Égypte antique.
 Le Complot du Nil
@@ -640,8 +899,8 @@
 L'Œil d'Horus
 L'Assassin du Nil
 Le Maître des deux terres
-Le Renard de Morlange[9].
-Mary Tempête est inspiré de la vie de la pirate Mary Read (1690–1721)[10],[4].
+Le Renard de Morlange.
+Mary Tempête est inspiré de la vie de la pirate Mary Read (1690–1721),.
 Le Cavalier du Nil a pour cadre l'Égypte antique sous le règne de Ramsès II en -1293.</t>
         </is>
       </c>
